--- a/data/trans_orig/dukeGLOBAL-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/dukeGLOBAL-Provincia-trans_orig.xlsx
@@ -669,7 +669,7 @@
         <v>46.90946963404929</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>50.17961436202457</v>
+        <v>50.17961436202459</v>
       </c>
       <c r="G4" s="5" t="n">
         <v>41.26172068913711</v>
@@ -681,7 +681,7 @@
         <v>46.34969406241294</v>
       </c>
       <c r="J4" s="5" t="n">
-        <v>49.95466044350803</v>
+        <v>49.95466044350804</v>
       </c>
       <c r="K4" s="5" t="n">
         <v>42.31035049955964</v>
@@ -704,40 +704,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>41.99698165981678</v>
+        <v>42.00968968146077</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>46.7226360886737</v>
+        <v>46.58010044397627</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>45.90806496068091</v>
+        <v>45.93122124852689</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>49.48674320966407</v>
+        <v>49.52492776368404</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>39.96912970132207</v>
+        <v>39.84180420224502</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>43.48075816662136</v>
+        <v>43.42411408334362</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>45.30565482081584</v>
+        <v>45.20912798319846</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>49.43481372879859</v>
+        <v>49.40752727755721</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>41.37731608963399</v>
+        <v>41.4193893970595</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>45.46241657844481</v>
+        <v>45.43105995033451</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>45.95608821536855</v>
+        <v>45.92312032204065</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>49.63470786162546</v>
+        <v>49.65237363107427</v>
       </c>
     </row>
     <row r="6">
@@ -748,40 +748,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>44.51596516558631</v>
+        <v>44.38205326197715</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>48.47143530801125</v>
+        <v>48.39474652939829</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>47.86979097214419</v>
+        <v>47.81021930105075</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>50.80782964373962</v>
+        <v>50.80448085640145</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>42.44247129586218</v>
+        <v>42.4990878363995</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>45.92268192455906</v>
+        <v>45.96408191567392</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>47.23978927146663</v>
+        <v>47.18898576042007</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>50.45205822482724</v>
+        <v>50.43284430871647</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>43.21755472829402</v>
+        <v>43.13054140312812</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>46.98412795300606</v>
+        <v>46.91209315453627</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>47.32303904675631</v>
+        <v>47.23668951470552</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>50.5200902708856</v>
+        <v>50.46841399636266</v>
       </c>
     </row>
     <row r="7">
@@ -805,7 +805,7 @@
         <v>45.86573966814353</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>48.60719853109357</v>
+        <v>48.60719853109354</v>
       </c>
       <c r="G7" s="5" t="n">
         <v>45.22886790842646</v>
@@ -817,7 +817,7 @@
         <v>45.82620406165069</v>
       </c>
       <c r="J7" s="5" t="n">
-        <v>48.69128878324787</v>
+        <v>48.69128878324786</v>
       </c>
       <c r="K7" s="5" t="n">
         <v>46.24082536735787</v>
@@ -840,40 +840,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>46.487872971706</v>
+        <v>46.43449844998019</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>47.86899796492003</v>
+        <v>47.76428883346858</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>45.24726775024745</v>
+        <v>45.31984570142156</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>47.86954640750691</v>
+        <v>47.91398388125745</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>44.27318123543933</v>
+        <v>44.33562109958852</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>47.49129441813255</v>
+        <v>47.46878816417119</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>45.25156747134434</v>
+        <v>45.22499367866001</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>48.10623154357113</v>
+        <v>48.04705255997057</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>45.6310702365156</v>
+        <v>45.58998266324646</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>47.86734021286482</v>
+        <v>47.93697920217259</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>45.43795854822111</v>
+        <v>45.42308759427267</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>48.17707128321194</v>
+        <v>48.17785112784159</v>
       </c>
     </row>
     <row r="9">
@@ -884,40 +884,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>48.05419716124101</v>
+        <v>48.08969202914611</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>49.35355094658863</v>
+        <v>49.32436401166945</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>46.44902216808018</v>
+        <v>46.43320927528254</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>49.2994583031761</v>
+        <v>49.32016907915836</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>46.02349534648386</v>
+        <v>46.02348094241003</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>48.96382966601193</v>
+        <v>48.93156642879664</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>46.37123850378273</v>
+        <v>46.38994736346561</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>49.20162135332831</v>
+        <v>49.22030556689329</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>46.8433720518771</v>
+        <v>46.85036595371805</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>48.94284553895595</v>
+        <v>48.9674439973858</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>46.26683763078044</v>
+        <v>46.23826061363189</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>49.06414604432331</v>
+        <v>49.06057915718227</v>
       </c>
     </row>
     <row r="10">
@@ -976,40 +976,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>48.83421710845288</v>
+        <v>48.83990172328674</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>49.1201570881295</v>
+        <v>49.08212844804799</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>46.80831994920965</v>
+        <v>46.76534917346204</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>49.32599895194415</v>
+        <v>49.22357932943276</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>48.82360843545462</v>
+        <v>48.84140917598517</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>47.7318299961971</v>
+        <v>47.73031132276827</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>46.15857221569841</v>
+        <v>46.10717064301664</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>48.98451170989622</v>
+        <v>49.00814033064594</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>49.14358720410814</v>
+        <v>49.07571338990889</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>48.60309567945072</v>
+        <v>48.60600792169507</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>46.68120740887798</v>
+        <v>46.69633024116951</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>49.41613431049716</v>
+        <v>49.40725450419014</v>
       </c>
     </row>
     <row r="12">
@@ -1020,40 +1020,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>50.27257835058292</v>
+        <v>50.32312142249874</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>50.50617493252098</v>
+        <v>50.55510652361885</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>48.24898269311279</v>
+        <v>48.15011494187124</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>50.92437636653379</v>
+        <v>50.9062628786745</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>50.29776485016124</v>
+        <v>50.37109405734245</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>49.21970837521233</v>
+        <v>49.16773271591578</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>47.58136793522551</v>
+        <v>47.64842392595603</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>50.30187090267864</v>
+        <v>50.29164831161662</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>50.16051343127984</v>
+        <v>50.19744040485597</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>49.61657500635363</v>
+        <v>49.60666173585493</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>47.71469692768742</v>
+        <v>47.68982625547181</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>50.42921712678894</v>
+        <v>50.41664037643623</v>
       </c>
     </row>
     <row r="13">
@@ -1077,7 +1077,7 @@
         <v>50.05224380569459</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>51.01665181711736</v>
+        <v>51.01665181711734</v>
       </c>
       <c r="G13" s="5" t="n">
         <v>47.10727138568638</v>
@@ -1089,7 +1089,7 @@
         <v>49.63444606082049</v>
       </c>
       <c r="J13" s="5" t="n">
-        <v>50.72513952244223</v>
+        <v>50.7251395224422</v>
       </c>
       <c r="K13" s="5" t="n">
         <v>47.47320089555941</v>
@@ -1112,40 +1112,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>47.0324541853611</v>
+        <v>46.99897396048701</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>48.69500622135327</v>
+        <v>48.71004314866297</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>49.01871097842356</v>
+        <v>49.18609441502544</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>49.80849988168649</v>
+        <v>49.79580989125563</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>46.28308018157429</v>
+        <v>46.28026525611395</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>47.46273121837961</v>
+        <v>47.41486333744171</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>48.73195934427702</v>
+        <v>48.60093169687702</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>49.77584685325513</v>
+        <v>49.74210175391974</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>46.90543134938453</v>
+        <v>46.88219118790534</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>48.2861106885333</v>
+        <v>48.28779220604996</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>49.12554237151195</v>
+        <v>49.20446257193169</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>50.15442437191417</v>
+        <v>50.09888081505953</v>
       </c>
     </row>
     <row r="15">
@@ -1156,40 +1156,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>48.51478734034735</v>
+        <v>48.49345712709687</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>50.27092032360991</v>
+        <v>50.34672495832823</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>50.79670014946366</v>
+        <v>50.80710412442242</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>51.89822024109209</v>
+        <v>51.87591730798</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>47.90193470333941</v>
+        <v>47.86035486068624</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>49.098900194881</v>
+        <v>49.04161126849081</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>50.42790307955991</v>
+        <v>50.39527640081222</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>51.33020444262658</v>
+        <v>51.31821858322075</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>48.02033651610263</v>
+        <v>48.03307764235445</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>49.46214653379444</v>
+        <v>49.42718122823349</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>50.3633302184918</v>
+        <v>50.40765012494305</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>51.41128724617868</v>
+        <v>51.43364062115666</v>
       </c>
     </row>
     <row r="16">
@@ -1225,7 +1225,7 @@
         <v>47.61451761585533</v>
       </c>
       <c r="J16" s="5" t="n">
-        <v>44.70318067071891</v>
+        <v>44.70318067071889</v>
       </c>
       <c r="K16" s="5" t="n">
         <v>45.40274960495167</v>
@@ -1248,40 +1248,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>44.72884184613172</v>
+        <v>44.69019188723404</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>48.38085040095253</v>
+        <v>48.34456893065662</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>46.22830423818495</v>
+        <v>46.23704328645366</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>43.66775068458416</v>
+        <v>43.73194596492392</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>43.63712882934223</v>
+        <v>43.74529149740524</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>46.14961266554823</v>
+        <v>46.21175686342855</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>46.77902021158116</v>
+        <v>46.75743476551512</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>44.02693033875996</v>
+        <v>44.08817254474442</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>44.58900710945045</v>
+        <v>44.5134248020669</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>47.70511557622345</v>
+        <v>47.61489880962329</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>46.78381936332438</v>
+        <v>46.78802689722489</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>44.12303329304538</v>
+        <v>44.13587462955701</v>
       </c>
     </row>
     <row r="18">
@@ -1292,40 +1292,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>47.1264838746869</v>
+        <v>47.08344043555473</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>50.28387921980447</v>
+        <v>50.16242689643465</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>48.03447815177732</v>
+        <v>48.0581945256228</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>45.32633045086084</v>
+        <v>45.44625434796877</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>45.87158216350441</v>
+        <v>45.91449072488445</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>48.44592969367193</v>
+        <v>48.36214936327428</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>48.3117497112749</v>
+        <v>48.3072607278889</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>45.29567257254064</v>
+        <v>45.29414414435411</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>46.22236426198071</v>
+        <v>46.15134874774557</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>49.09974061125252</v>
+        <v>49.01896276435724</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>47.98418542784235</v>
+        <v>48.00416000233888</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>45.17024211894716</v>
+        <v>45.1960540060543</v>
       </c>
     </row>
     <row r="19">
@@ -1373,7 +1373,7 @@
         <v>46.94930907587201</v>
       </c>
       <c r="N19" s="5" t="n">
-        <v>49.80932777907926</v>
+        <v>49.80932777907925</v>
       </c>
     </row>
     <row r="20">
@@ -1384,40 +1384,40 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>47.28604680303388</v>
+        <v>47.35543227749135</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>48.25283828123976</v>
+        <v>48.2549554806344</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>46.6981186344965</v>
+        <v>46.72872016684995</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>48.70634896986656</v>
+        <v>48.75470097812525</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>45.64351864975217</v>
+        <v>45.57337850333754</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>47.17831269415891</v>
+        <v>47.08907725669999</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>45.23563304769061</v>
+        <v>45.12431281162151</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>49.16614372719787</v>
+        <v>49.1786261629131</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>46.67067523714475</v>
+        <v>46.69406823247151</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>47.96123709356019</v>
+        <v>47.95724378843938</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>46.22927133254047</v>
+        <v>46.19550016395863</v>
       </c>
       <c r="N20" s="5" t="n">
-        <v>49.25795624333186</v>
+        <v>49.26556872369652</v>
       </c>
     </row>
     <row r="21">
@@ -1428,40 +1428,40 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>48.92538039590943</v>
+        <v>48.94441823355348</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>49.90746698121222</v>
+        <v>49.94649711662408</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>48.47036663022526</v>
+        <v>48.52797028941058</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>50.52580898432573</v>
+        <v>50.4637972717723</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>47.49960967294567</v>
+        <v>47.57923785076935</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>48.79107903660306</v>
+        <v>48.8007055799004</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>47.3039216912689</v>
+        <v>47.1809236664428</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>50.5575971169316</v>
+        <v>50.64908872465141</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>47.95481332365762</v>
+        <v>47.97651902461451</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>49.16022358610988</v>
+        <v>49.15142050083654</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>47.59347926369455</v>
+        <v>47.58501601458365</v>
       </c>
       <c r="N21" s="5" t="n">
-        <v>50.36886441469119</v>
+        <v>50.36638212652404</v>
       </c>
     </row>
     <row r="22">
@@ -1485,7 +1485,7 @@
         <v>45.84622303321075</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>48.70772224249783</v>
+        <v>48.70772224249784</v>
       </c>
       <c r="G22" s="5" t="n">
         <v>49.48057496100603</v>
@@ -1509,7 +1509,7 @@
         <v>45.67974391418551</v>
       </c>
       <c r="N22" s="5" t="n">
-        <v>48.5220020311829</v>
+        <v>48.52200203118291</v>
       </c>
     </row>
     <row r="23">
@@ -1520,40 +1520,40 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>49.34916812378369</v>
+        <v>49.33359797608897</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>48.58957818142782</v>
+        <v>48.52684665251045</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>45.22875259363388</v>
+        <v>45.26245611774929</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>48.05830220998816</v>
+        <v>48.08142703291026</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>48.81386787931903</v>
+        <v>48.7694324270283</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>48.15773171029168</v>
+        <v>48.11444234571675</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>44.95313938113114</v>
+        <v>44.87758359985297</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>47.7514850328747</v>
+        <v>47.79150050575329</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>49.29609529741806</v>
+        <v>49.23613219760004</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>48.53046289889826</v>
+        <v>48.53064079149315</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>45.27347266627548</v>
+        <v>45.28284649709339</v>
       </c>
       <c r="N23" s="5" t="n">
-        <v>48.11410613518706</v>
+        <v>48.09533386885419</v>
       </c>
     </row>
     <row r="24">
@@ -1564,40 +1564,40 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>50.45422347486353</v>
+        <v>50.4577702609952</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>49.72925584817212</v>
+        <v>49.7274803687451</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>46.39283368989531</v>
+        <v>46.44543306848153</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>49.29258434334848</v>
+        <v>49.2945899886534</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>50.03524764957627</v>
+        <v>50.05663880824106</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>49.12168547515782</v>
+        <v>49.15503258044698</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>46.08303248078793</v>
+        <v>46.07439038724709</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>48.88297215283633</v>
+        <v>48.87807376416698</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>50.12655313867847</v>
+        <v>50.1044780008582</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>49.29948310839892</v>
+        <v>49.30644251961785</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>46.04683804376194</v>
+        <v>46.10710627655593</v>
       </c>
       <c r="N24" s="5" t="n">
-        <v>48.90625727852449</v>
+        <v>48.90200847024437</v>
       </c>
     </row>
     <row r="25">
@@ -1633,7 +1633,7 @@
         <v>45.82700678984277</v>
       </c>
       <c r="J25" s="5" t="n">
-        <v>43.13657042742289</v>
+        <v>43.1365704274229</v>
       </c>
       <c r="K25" s="5" t="n">
         <v>46.09834070389353</v>
@@ -1656,40 +1656,40 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>46.23112989647016</v>
+        <v>46.19953694568122</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>45.78478035393534</v>
+        <v>45.74622229056922</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>45.90331289369043</v>
+        <v>45.8745257731706</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>43.54090646311769</v>
+        <v>43.5590838161629</v>
       </c>
       <c r="G26" s="5" t="n">
-        <v>44.92844150096295</v>
+        <v>44.97576632264041</v>
       </c>
       <c r="H26" s="5" t="n">
-        <v>45.97880891128747</v>
+        <v>46.01942461529408</v>
       </c>
       <c r="I26" s="5" t="n">
-        <v>45.41752593096395</v>
+        <v>45.37841491368971</v>
       </c>
       <c r="J26" s="5" t="n">
-        <v>42.54450881918041</v>
+        <v>42.55071487827336</v>
       </c>
       <c r="K26" s="5" t="n">
-        <v>45.72277503623405</v>
+        <v>45.70361373287766</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>46.01925564167317</v>
+        <v>46.02754826537576</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>45.79882596278492</v>
+        <v>45.71063634256472</v>
       </c>
       <c r="N26" s="5" t="n">
-        <v>43.2356617097252</v>
+        <v>43.19533836155328</v>
       </c>
     </row>
     <row r="27">
@@ -1700,40 +1700,40 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>47.22819134157101</v>
+        <v>47.22652146089909</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>46.71034346428424</v>
+        <v>46.69966930100163</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>46.71363524147881</v>
+        <v>46.73521534991002</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>44.91083315665939</v>
+        <v>44.98678012864021</v>
       </c>
       <c r="G27" s="5" t="n">
-        <v>45.98714838654644</v>
+        <v>46.02904367248661</v>
       </c>
       <c r="H27" s="5" t="n">
-        <v>46.85303324106373</v>
+        <v>46.89882693555501</v>
       </c>
       <c r="I27" s="5" t="n">
-        <v>46.28083104397801</v>
+        <v>46.23018407253554</v>
       </c>
       <c r="J27" s="5" t="n">
-        <v>43.67713921003224</v>
+        <v>43.71110965802645</v>
       </c>
       <c r="K27" s="5" t="n">
-        <v>46.4841832566845</v>
+        <v>46.44626300118619</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>46.6542005901117</v>
+        <v>46.66545724052431</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>46.38626204970269</v>
+        <v>46.34679044614271</v>
       </c>
       <c r="N27" s="5" t="n">
-        <v>44.09979538087991</v>
+        <v>44.06163068845644</v>
       </c>
     </row>
     <row r="28">
@@ -1757,10 +1757,10 @@
         <v>46.88512814472551</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>48.00773144031606</v>
+        <v>48.00773144031605</v>
       </c>
       <c r="G28" s="5" t="n">
-        <v>46.52293674809259</v>
+        <v>46.5229367480926</v>
       </c>
       <c r="H28" s="5" t="n">
         <v>47.60480235823682</v>
@@ -1769,7 +1769,7 @@
         <v>46.47765039603425</v>
       </c>
       <c r="J28" s="5" t="n">
-        <v>47.62508446849494</v>
+        <v>47.62508446849493</v>
       </c>
       <c r="K28" s="5" t="n">
         <v>47.05785821845306</v>
@@ -1781,7 +1781,7 @@
         <v>46.67721858834163</v>
       </c>
       <c r="N28" s="5" t="n">
-        <v>47.81149674027627</v>
+        <v>47.81149674027626</v>
       </c>
     </row>
     <row r="29">
@@ -1792,40 +1792,40 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>47.33932048796888</v>
+        <v>47.31147184541169</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>48.15412057024983</v>
+        <v>48.15703061277248</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>46.63115854709203</v>
+        <v>46.63705816021719</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>47.72220071418381</v>
+        <v>47.69333348355847</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>46.20186022897757</v>
+        <v>46.20495640376781</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>47.32927924025051</v>
+        <v>47.35028713394439</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>46.22394962725504</v>
+        <v>46.25551455103071</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>47.35719761327616</v>
+        <v>47.39893852345308</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>46.84986550963301</v>
+        <v>46.85043749593664</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>47.81782459228336</v>
+        <v>47.80315400072966</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>46.50099235889027</v>
+        <v>46.50127119554906</v>
       </c>
       <c r="N29" s="5" t="n">
-        <v>47.61722930425368</v>
+        <v>47.60949922524942</v>
       </c>
     </row>
     <row r="30">
@@ -1836,40 +1836,40 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>47.89125912366187</v>
+        <v>47.86929049061957</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>48.66532681125882</v>
+        <v>48.63722678383294</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>47.13418770788815</v>
+        <v>47.12819367582205</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>48.31048970009913</v>
+        <v>48.28095038779072</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>46.7903746855938</v>
+        <v>46.81176203787442</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>47.84596579238981</v>
+        <v>47.86375453059456</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>46.72670704009585</v>
+        <v>46.72376474264691</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>47.84626618834594</v>
+        <v>47.87576591451918</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>47.25441942053771</v>
+        <v>47.25711350287192</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>48.1769832740467</v>
+        <v>48.18088056138084</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>46.84643526908238</v>
+        <v>46.82953563333692</v>
       </c>
       <c r="N30" s="5" t="n">
-        <v>48.00267666734905</v>
+        <v>47.98638625833717</v>
       </c>
     </row>
     <row r="31">
